--- a/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D783611-A4AC-44F8-AF70-E3942189F475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8D1F44-230C-4083-BD44-55B84D759DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C99342C-B4E1-4D15-8B89-02FC626E6420}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF0B00DB-9289-4AFC-8CBC-FE861A02B43A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
-  <si>
-    <t>Población según la frecuencia de consumición de huevos en 2007 (Tasa respuesta: 99,86%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="646">
+  <si>
+    <t>Población según la frecuencia de consumo de huevos en 2007 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1879 +77,1903 @@
     <t>3,51%</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de huevos en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de huevos en 2015 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de huevos en 2023 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de huevos en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
   </si>
   <si>
     <t>55,13%</t>
   </si>
   <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de huevos en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>2,97%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de huevos en 2023 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
   </si>
   <si>
     <t>7,25%</t>
@@ -2364,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92882392-2E0E-4730-9610-2878F94A2C83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059D029-A5B4-420E-B5EF-58C59439C2F6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2817,7 +2841,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2826,13 +2850,13 @@
         <v>74529</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2871,13 @@
         <v>335547</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -2862,13 +2886,13 @@
         <v>266722</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>599</v>
@@ -2877,13 +2901,13 @@
         <v>602269</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2922,13 @@
         <v>947311</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>952</v>
@@ -2913,13 +2937,13 @@
         <v>970578</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1880</v>
@@ -2928,13 +2952,13 @@
         <v>1917889</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2973,13 @@
         <v>339865</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>266</v>
@@ -2964,13 +2988,13 @@
         <v>278011</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>586</v>
@@ -2979,13 +3003,13 @@
         <v>617877</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3024,13 @@
         <v>35891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -3015,13 +3039,13 @@
         <v>25021</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3030,13 +3054,13 @@
         <v>60912</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,7 +3116,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3104,7 +3128,7 @@
         <v>9050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>106</v>
@@ -3137,10 +3161,10 @@
         <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3179,13 @@
         <v>109318</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -3170,13 +3194,13 @@
         <v>69716</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -3185,13 +3209,13 @@
         <v>179033</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3230,13 @@
         <v>321085</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>286</v>
@@ -3221,13 +3245,13 @@
         <v>300513</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>596</v>
@@ -3236,13 +3260,13 @@
         <v>621598</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3281,13 @@
         <v>103546</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -3272,13 +3296,13 @@
         <v>86421</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -3287,13 +3311,13 @@
         <v>189967</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,10 +3335,10 @@
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3323,13 +3347,13 @@
         <v>3030</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3338,13 +3362,13 @@
         <v>11438</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3436,13 @@
         <v>77519</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -3430,10 +3454,10 @@
         <v>51</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>177</v>
@@ -3442,13 +3466,13 @@
         <v>181622</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3487,13 @@
         <v>661943</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>614</v>
@@ -3478,13 +3502,13 @@
         <v>619287</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>1272</v>
@@ -3493,13 +3517,13 @@
         <v>1281230</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3538,13 @@
         <v>1793302</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>1967</v>
@@ -3529,13 +3553,13 @@
         <v>2008560</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>3737</v>
@@ -3544,13 +3568,13 @@
         <v>3801861</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3589,13 @@
         <v>663027</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>567</v>
@@ -3580,13 +3604,13 @@
         <v>594130</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>1199</v>
@@ -3595,13 +3619,13 @@
         <v>1257157</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3640,13 @@
         <v>76166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -3631,13 +3655,13 @@
         <v>47999</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -3646,13 +3670,13 @@
         <v>124166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3732,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CF43C6-F12B-4B74-B867-0C2850761009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A805F3-6841-4351-BAD3-E1AF855DC88E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3744,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3851,13 +3875,13 @@
         <v>37662</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3866,13 +3890,13 @@
         <v>43842</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -3881,13 +3905,13 @@
         <v>81504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3926,13 @@
         <v>219618</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
         <v>292</v>
@@ -3917,13 +3941,13 @@
         <v>313856</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>498</v>
@@ -3932,13 +3956,13 @@
         <v>533474</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3977,13 @@
         <v>531290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>694</v>
@@ -3968,13 +3992,13 @@
         <v>738408</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>1188</v>
@@ -3983,13 +4007,13 @@
         <v>1269698</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4028,13 @@
         <v>159042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -4019,13 +4043,13 @@
         <v>222044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>350</v>
@@ -4034,13 +4058,13 @@
         <v>381086</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4079,13 @@
         <v>19868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4070,13 +4094,13 @@
         <v>13632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -4085,13 +4109,13 @@
         <v>33500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4183,13 @@
         <v>33813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4174,13 +4198,13 @@
         <v>27795</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4189,13 +4213,13 @@
         <v>61609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4234,13 @@
         <v>241130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -4225,13 +4249,13 @@
         <v>241838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>455</v>
@@ -4240,13 +4264,13 @@
         <v>482968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4285,13 @@
         <v>1135900</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>944</v>
@@ -4276,13 +4300,13 @@
         <v>1012449</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>2022</v>
@@ -4291,13 +4315,13 @@
         <v>2148349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4336,13 @@
         <v>507762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>402</v>
@@ -4327,13 +4351,13 @@
         <v>435456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -4342,13 +4366,13 @@
         <v>943217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4387,13 @@
         <v>42493</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -4378,13 +4402,13 @@
         <v>36369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -4393,13 +4417,13 @@
         <v>78862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,7 +4479,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4467,13 +4491,13 @@
         <v>8164</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4482,13 +4506,13 @@
         <v>11928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4497,13 +4521,13 @@
         <v>20092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4542,13 @@
         <v>68884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -4533,13 +4557,13 @@
         <v>75019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -4548,13 +4572,13 @@
         <v>143902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4593,13 @@
         <v>276198</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>245</v>
@@ -4584,13 +4608,13 @@
         <v>272851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>498</v>
@@ -4599,13 +4623,13 @@
         <v>549049</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4644,13 @@
         <v>126980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -4635,13 +4659,13 @@
         <v>95836</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -4650,13 +4674,13 @@
         <v>222817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4695,13 @@
         <v>954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4686,13 +4710,13 @@
         <v>2997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4701,13 +4725,13 @@
         <v>3952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4799,13 @@
         <v>79640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -4790,13 +4814,13 @@
         <v>83565</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>149</v>
@@ -4805,13 +4829,13 @@
         <v>163205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4850,13 @@
         <v>529631</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>585</v>
@@ -4841,13 +4865,13 @@
         <v>630713</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>1080</v>
@@ -4856,13 +4880,13 @@
         <v>1160344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4901,13 @@
         <v>1943389</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H24" s="7">
         <v>1883</v>
@@ -4892,28 +4916,28 @@
         <v>2023708</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M24" s="7">
         <v>3708</v>
       </c>
       <c r="N24" s="7">
-        <v>3967097</v>
+        <v>3967096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4952,13 @@
         <v>793784</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>691</v>
@@ -4943,13 +4967,13 @@
         <v>753336</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>1430</v>
@@ -4958,13 +4982,13 @@
         <v>1547120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5003,13 @@
         <v>63316</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -4994,13 +5018,13 @@
         <v>52998</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -5009,13 +5033,13 @@
         <v>116314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,7 +5081,7 @@
         <v>6478</v>
       </c>
       <c r="N27" s="7">
-        <v>6954080</v>
+        <v>6954079</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5071,7 +5095,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1FB738-A007-4A0B-854A-FBD4461E66C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D73F60-5F18-4448-AEDA-219E1B44A0B7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5238,13 @@
         <v>28302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5229,13 +5253,13 @@
         <v>23659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -5244,13 +5268,13 @@
         <v>51962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5289,13 @@
         <v>83717</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>130</v>
@@ -5280,13 +5304,13 @@
         <v>145527</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -5322,7 +5346,7 @@
         <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
@@ -5331,13 +5355,13 @@
         <v>558950</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>911</v>
@@ -5346,13 +5370,13 @@
         <v>965792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5391,13 @@
         <v>207275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>218</v>
@@ -5382,13 +5406,13 @@
         <v>239231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>422</v>
@@ -5397,13 +5421,13 @@
         <v>446506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5442,13 @@
         <v>25494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>386</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5433,13 +5457,13 @@
         <v>21740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -5448,13 +5472,13 @@
         <v>47233</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>388</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5546,13 @@
         <v>31215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -5537,13 +5561,13 @@
         <v>32708</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -5552,13 +5576,13 @@
         <v>63923</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5597,13 @@
         <v>250731</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -5588,13 +5612,13 @@
         <v>281242</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>500</v>
@@ -5609,7 +5633,7 @@
         <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5648,13 @@
         <v>1219014</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H12" s="7">
         <v>1124</v>
@@ -5639,10 +5663,10 @@
         <v>1168771</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>407</v>
@@ -5693,10 +5717,10 @@
         <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>415</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M13" s="7">
         <v>927</v>
@@ -5705,13 +5729,13 @@
         <v>976880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5750,13 @@
         <v>46261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>421</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -5741,13 +5765,13 @@
         <v>34413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5756,13 +5780,13 @@
         <v>80673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,7 +5828,7 @@
         <v>3840</v>
       </c>
       <c r="N15" s="7">
-        <v>4041234</v>
+        <v>4041235</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5818,7 +5842,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5830,13 +5854,13 @@
         <v>8982</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5845,13 +5869,13 @@
         <v>2755</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5860,13 +5884,13 @@
         <v>11738</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5905,13 @@
         <v>66296</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5896,13 +5920,13 @@
         <v>82425</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -6016,10 +6040,10 @@
         <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,10 +6061,10 @@
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6049,13 +6073,13 @@
         <v>9329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -6064,13 +6088,13 @@
         <v>17645</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6162,13 @@
         <v>68499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -6153,13 +6177,13 @@
         <v>59123</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>467</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>469</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -6168,13 +6192,13 @@
         <v>127622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>470</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>471</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6213,13 @@
         <v>400744</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H23" s="7">
         <v>481</v>
@@ -6204,13 +6228,13 @@
         <v>509195</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M23" s="7">
         <v>856</v>
@@ -6219,13 +6243,13 @@
         <v>909938</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6264,13 @@
         <v>1956310</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>479</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>1930</v>
@@ -6255,13 +6279,13 @@
         <v>2050983</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>3802</v>
@@ -6270,13 +6294,13 @@
         <v>4007293</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6315,13 @@
         <v>855523</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H25" s="7">
         <v>782</v>
@@ -6306,13 +6330,13 @@
         <v>828932</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M25" s="7">
         <v>1592</v>
@@ -6321,13 +6345,13 @@
         <v>1684455</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6366,13 @@
         <v>80070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>66</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>497</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6357,13 +6381,13 @@
         <v>65481</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -6372,13 +6396,13 @@
         <v>145552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>69</v>
+        <v>496</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6458,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B66F8C-F8A9-4252-A04E-857F2B971600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3452EC06-ED5C-4067-9489-B5B38411CE70}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6577,10 +6601,10 @@
         <v>11193</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>499</v>
@@ -6592,13 +6616,13 @@
         <v>8035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>465</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>500</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6607,13 +6631,13 @@
         <v>19228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>501</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6652,13 @@
         <v>45113</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H5" s="7">
         <v>151</v>
@@ -6643,13 +6667,13 @@
         <v>92301</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -6658,13 +6682,13 @@
         <v>137414</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6703,13 @@
         <v>297713</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H6" s="7">
         <v>858</v>
@@ -6694,13 +6718,13 @@
         <v>479262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M6" s="7">
         <v>1255</v>
@@ -6709,13 +6733,13 @@
         <v>776974</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>367</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6754,13 @@
         <v>165651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>521</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H7" s="7">
         <v>375</v>
@@ -6745,13 +6769,13 @@
         <v>238514</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M7" s="7">
         <v>569</v>
@@ -6760,13 +6784,13 @@
         <v>404165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6805,13 @@
         <v>21964</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6796,13 +6820,13 @@
         <v>17840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>530</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -6811,13 +6835,13 @@
         <v>39804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6909,13 @@
         <v>19163</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6900,13 +6924,13 @@
         <v>27110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>536</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -6915,13 +6939,13 @@
         <v>46273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>538</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>539</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6960,13 @@
         <v>194291</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -6951,13 +6975,13 @@
         <v>216051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -6966,13 +6990,13 @@
         <v>410342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +7011,13 @@
         <v>1176852</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H12" s="7">
         <v>1684</v>
@@ -7002,13 +7026,13 @@
         <v>1218388</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M12" s="7">
         <v>2828</v>
@@ -7017,13 +7041,13 @@
         <v>2395239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>557</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,10 +7065,10 @@
         <v>558</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H13" s="7">
         <v>784</v>
@@ -7053,13 +7077,13 @@
         <v>725137</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M13" s="7">
         <v>1359</v>
@@ -7068,13 +7092,13 @@
         <v>1370349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7113,13 @@
         <v>125467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>568</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -7104,13 +7128,13 @@
         <v>61627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>146</v>
@@ -7119,13 +7143,13 @@
         <v>187095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,7 +7205,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7193,13 +7217,13 @@
         <v>8619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7208,13 +7232,13 @@
         <v>5735</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7223,13 +7247,13 @@
         <v>14354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>578</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7268,13 @@
         <v>84710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -7259,13 +7283,13 @@
         <v>91425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M17" s="7">
         <v>220</v>
@@ -7274,13 +7298,13 @@
         <v>176135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7319,13 @@
         <v>338860</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H18" s="7">
         <v>558</v>
@@ -7310,13 +7334,13 @@
         <v>396142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="M18" s="7">
         <v>913</v>
@@ -7325,13 +7349,13 @@
         <v>735002</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7370,13 @@
         <v>210338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
@@ -7361,13 +7385,13 @@
         <v>202838</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="M19" s="7">
         <v>477</v>
@@ -7376,13 +7400,13 @@
         <v>413176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,13 +7421,13 @@
         <v>30512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>605</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -7412,13 +7436,13 @@
         <v>17747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>497</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>603</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -7427,13 +7451,13 @@
         <v>48259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7525,13 @@
         <v>38975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -7516,13 +7540,13 @@
         <v>40880</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>536</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -7531,13 +7555,13 @@
         <v>79855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7576,13 @@
         <v>324114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -7567,13 +7591,13 @@
         <v>399778</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="M23" s="7">
         <v>955</v>
@@ -7582,13 +7606,13 @@
         <v>723891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>616</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7627,13 @@
         <v>1813423</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="H24" s="7">
         <v>3100</v>
@@ -7618,13 +7642,13 @@
         <v>2093792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>252</v>
+        <v>624</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="M24" s="7">
         <v>4996</v>
@@ -7633,13 +7657,13 @@
         <v>3907215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7678,13 @@
         <v>1021202</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H25" s="7">
         <v>1430</v>
@@ -7669,13 +7693,13 @@
         <v>1166489</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="M25" s="7">
         <v>2405</v>
@@ -7684,13 +7708,13 @@
         <v>2187691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7729,13 @@
         <v>177944</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>638</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="H26" s="7">
         <v>143</v>
@@ -7720,13 +7744,13 @@
         <v>97214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>642</v>
       </c>
       <c r="M26" s="7">
         <v>258</v>
@@ -7735,13 +7759,13 @@
         <v>275158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>644</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,7 +7821,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8D1F44-230C-4083-BD44-55B84D759DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA48A0D7-ACC6-48E6-AC03-42C986829C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF0B00DB-9289-4AFC-8CBC-FE861A02B43A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{741AAFBE-37D7-48A5-B081-69EE9D25F52E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
   <si>
     <t>Población según la frecuencia de consumo de huevos en 2007 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -77,1906 +77,1882 @@
     <t>3,51%</t>
   </si>
   <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de huevos en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de huevos en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de huevos en 2023 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de huevos en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de huevos en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de huevos en 2023 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>6,78%</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059D029-A5B4-420E-B5EF-58C59439C2F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0976D9D8-BC35-4635-A238-753D0B5F5A73}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2841,7 +2817,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2850,13 +2826,13 @@
         <v>74529</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2847,13 @@
         <v>335547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -2886,13 +2862,13 @@
         <v>266722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>599</v>
@@ -2901,13 +2877,13 @@
         <v>602269</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2898,13 @@
         <v>947311</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>952</v>
@@ -2937,13 +2913,13 @@
         <v>970578</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1880</v>
@@ -2952,13 +2928,13 @@
         <v>1917889</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2949,13 @@
         <v>339865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>266</v>
@@ -2988,13 +2964,13 @@
         <v>278011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>586</v>
@@ -3003,13 +2979,13 @@
         <v>617877</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3000,13 @@
         <v>35891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -3039,13 +3015,13 @@
         <v>25021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3054,13 +3030,13 @@
         <v>60912</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,7 +3137,7 @@
         <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>111</v>
@@ -3353,7 +3329,7 @@
         <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3368,7 +3344,7 @@
         <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3412,13 @@
         <v>77519</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -3454,10 +3430,10 @@
         <v>51</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>177</v>
@@ -3466,13 +3442,13 @@
         <v>181622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,10 +3466,10 @@
         <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>614</v>
@@ -3502,13 +3478,13 @@
         <v>619287</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>1272</v>
@@ -3517,13 +3493,13 @@
         <v>1281230</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3514,13 @@
         <v>1793302</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>1967</v>
@@ -3553,13 +3529,13 @@
         <v>2008560</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>3737</v>
@@ -3568,13 +3544,13 @@
         <v>3801861</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3565,13 @@
         <v>663027</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>567</v>
@@ -3604,13 +3580,13 @@
         <v>594130</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>1199</v>
@@ -3619,13 +3595,13 @@
         <v>1257157</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3616,13 @@
         <v>76166</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -3655,7 +3631,7 @@
         <v>47999</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>181</v>
@@ -3676,7 +3652,7 @@
         <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,7 +3708,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A805F3-6841-4351-BAD3-E1AF855DC88E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7553E941-4246-40D8-83BA-15143F8DBB82}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,7 +3744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3875,13 +3851,13 @@
         <v>37662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3890,13 +3866,13 @@
         <v>43842</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -3905,13 +3881,13 @@
         <v>81504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3902,13 @@
         <v>219618</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>292</v>
@@ -3941,13 +3917,13 @@
         <v>313856</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>498</v>
@@ -3956,13 +3932,13 @@
         <v>533474</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3953,13 @@
         <v>531290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="H6" s="7">
         <v>694</v>
@@ -3992,13 +3968,13 @@
         <v>738408</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>1188</v>
@@ -4007,13 +3983,13 @@
         <v>1269698</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4004,13 @@
         <v>159042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -4043,13 +4019,13 @@
         <v>222044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>350</v>
@@ -4058,13 +4034,13 @@
         <v>381086</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4055,13 @@
         <v>19868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4115,7 +4091,7 @@
         <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4159,13 @@
         <v>33813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4198,13 +4174,13 @@
         <v>27795</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4213,13 +4189,13 @@
         <v>61609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4210,13 @@
         <v>241130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -4249,13 +4225,13 @@
         <v>241838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
         <v>455</v>
@@ -4264,13 +4240,13 @@
         <v>482968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4261,13 @@
         <v>1135900</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H12" s="7">
         <v>944</v>
@@ -4300,13 +4276,13 @@
         <v>1012449</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M12" s="7">
         <v>2022</v>
@@ -4315,13 +4291,13 @@
         <v>2148349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4312,13 @@
         <v>507762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>402</v>
@@ -4351,13 +4327,13 @@
         <v>435456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -4366,13 +4342,13 @@
         <v>943217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4363,13 @@
         <v>42493</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -4402,13 +4378,13 @@
         <v>36369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -4417,13 +4393,13 @@
         <v>78862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4467,13 @@
         <v>8164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4506,13 +4482,13 @@
         <v>11928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4521,13 +4497,13 @@
         <v>20092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4518,13 @@
         <v>68884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -4557,13 +4533,13 @@
         <v>75019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -4572,13 +4548,13 @@
         <v>143902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4569,13 @@
         <v>276198</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>245</v>
@@ -4608,13 +4584,13 @@
         <v>272851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>498</v>
@@ -4623,13 +4599,13 @@
         <v>549049</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4620,13 @@
         <v>126980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -4659,13 +4635,13 @@
         <v>95836</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -4674,13 +4650,13 @@
         <v>222817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4671,13 @@
         <v>954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4710,13 +4686,13 @@
         <v>2997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4725,13 +4701,13 @@
         <v>3952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4775,13 @@
         <v>79640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -4814,13 +4790,13 @@
         <v>83565</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>149</v>
@@ -4829,13 +4805,13 @@
         <v>163205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4826,13 @@
         <v>529631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
         <v>585</v>
@@ -4865,13 +4841,13 @@
         <v>630713</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
         <v>1080</v>
@@ -4880,13 +4856,13 @@
         <v>1160344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4877,13 @@
         <v>1943389</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H24" s="7">
         <v>1883</v>
@@ -4916,13 +4892,13 @@
         <v>2023708</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M24" s="7">
         <v>3708</v>
@@ -4931,13 +4907,13 @@
         <v>3967096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4928,13 @@
         <v>793784</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
         <v>691</v>
@@ -4967,13 +4943,13 @@
         <v>753336</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>1430</v>
@@ -4982,13 +4958,13 @@
         <v>1547120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4979,13 @@
         <v>63316</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -5018,13 +4994,13 @@
         <v>52998</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>345</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -5033,13 +5009,13 @@
         <v>116314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,7 +5071,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D73F60-5F18-4448-AEDA-219E1B44A0B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24CBFC2-A35F-4708-9E4D-C437C8247C8F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5131,7 +5107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5238,13 +5214,13 @@
         <v>28302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>349</v>
+        <v>111</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5253,13 +5229,13 @@
         <v>23659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -5268,13 +5244,13 @@
         <v>51962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>356</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5265,13 @@
         <v>83717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>130</v>
@@ -5304,13 +5280,13 @@
         <v>145527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -5319,13 +5295,13 @@
         <v>229244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5316,13 @@
         <v>406842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
@@ -5355,13 +5331,13 @@
         <v>558950</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="M6" s="7">
         <v>911</v>
@@ -5370,13 +5346,13 @@
         <v>965792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5367,13 @@
         <v>207275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H7" s="7">
         <v>218</v>
@@ -5406,13 +5382,13 @@
         <v>239231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="M7" s="7">
         <v>422</v>
@@ -5421,13 +5397,13 @@
         <v>446506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5418,13 @@
         <v>25494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5457,13 +5433,13 @@
         <v>21740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>390</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -5472,13 +5448,13 @@
         <v>47233</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5522,13 @@
         <v>31215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -5561,13 +5537,13 @@
         <v>32708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -5576,13 +5552,13 @@
         <v>63923</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5573,13 @@
         <v>250731</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -5612,13 +5588,13 @@
         <v>281242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M11" s="7">
         <v>500</v>
@@ -5627,13 +5603,13 @@
         <v>531973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5624,13 @@
         <v>1219014</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H12" s="7">
         <v>1124</v>
@@ -5663,13 +5639,13 @@
         <v>1168771</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="M12" s="7">
         <v>2277</v>
@@ -5678,13 +5654,13 @@
         <v>2387785</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>409</v>
+        <v>276</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5675,13 @@
         <v>515409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>442</v>
@@ -5714,13 +5690,13 @@
         <v>461471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>927</v>
@@ -5729,13 +5705,13 @@
         <v>976880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5726,13 @@
         <v>46261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -5765,13 +5741,13 @@
         <v>34413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5780,13 +5756,13 @@
         <v>80673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,10 +5833,10 @@
         <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5869,13 +5845,13 @@
         <v>2755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5884,13 +5860,13 @@
         <v>11738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>431</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5881,13 @@
         <v>66296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5920,13 +5896,13 @@
         <v>82425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -5935,13 +5911,13 @@
         <v>148721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5932,13 @@
         <v>330453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H18" s="7">
         <v>309</v>
@@ -5971,13 +5947,13 @@
         <v>323263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>614</v>
@@ -5986,13 +5962,13 @@
         <v>653716</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +5983,13 @@
         <v>132839</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -6022,13 +5998,13 @@
         <v>128231</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -6037,13 +6013,13 @@
         <v>261069</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,10 +6037,10 @@
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6073,13 +6049,13 @@
         <v>9329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>463</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -6088,13 +6064,13 @@
         <v>17645</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>464</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>465</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6138,13 @@
         <v>68499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -6177,13 +6153,13 @@
         <v>59123</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>223</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -6192,13 +6168,13 @@
         <v>127622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6189,13 @@
         <v>400744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>481</v>
@@ -6228,13 +6204,13 @@
         <v>509195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="M23" s="7">
         <v>856</v>
@@ -6243,13 +6219,13 @@
         <v>909938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6240,13 @@
         <v>1956310</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H24" s="7">
         <v>1930</v>
@@ -6279,13 +6255,13 @@
         <v>2050983</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="M24" s="7">
         <v>3802</v>
@@ -6294,13 +6270,13 @@
         <v>4007293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6291,13 @@
         <v>855523</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="H25" s="7">
         <v>782</v>
@@ -6330,13 +6306,13 @@
         <v>828932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>478</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="M25" s="7">
         <v>1592</v>
@@ -6345,13 +6321,13 @@
         <v>1684455</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6342,13 @@
         <v>80070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>233</v>
+        <v>483</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>484</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>485</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6381,13 +6357,13 @@
         <v>65481</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>226</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>483</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -6396,13 +6372,13 @@
         <v>145552</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>496</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>497</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6434,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6477,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3452EC06-ED5C-4067-9489-B5B38411CE70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B73E75B-03FC-4256-9AFF-4E4C8BEB0F90}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6494,7 +6470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6601,13 +6577,13 @@
         <v>11193</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -6616,13 +6592,13 @@
         <v>8035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>500</v>
+        <v>419</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6631,13 +6607,13 @@
         <v>19228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>491</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>492</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6628,13 @@
         <v>45113</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>151</v>
@@ -6667,13 +6643,13 @@
         <v>92301</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>508</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -6682,13 +6658,13 @@
         <v>137414</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6679,13 @@
         <v>297713</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>514</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>858</v>
@@ -6718,13 +6694,13 @@
         <v>479262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="M6" s="7">
         <v>1255</v>
@@ -6733,13 +6709,13 @@
         <v>776974</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>367</v>
+        <v>508</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6730,13 @@
         <v>165651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>375</v>
@@ -6769,13 +6745,13 @@
         <v>238514</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>569</v>
@@ -6784,13 +6760,13 @@
         <v>404165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6781,13 @@
         <v>21964</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6820,13 +6796,13 @@
         <v>17840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -6835,13 +6811,13 @@
         <v>39804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6885,13 @@
         <v>19163</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>536</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>527</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6924,13 +6900,13 @@
         <v>27110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>529</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -6939,13 +6915,13 @@
         <v>46273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>540</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +6936,13 @@
         <v>194291</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -6975,13 +6951,13 @@
         <v>216051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>546</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -6990,13 +6966,13 @@
         <v>410342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +6987,13 @@
         <v>1176852</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="H12" s="7">
         <v>1684</v>
@@ -7026,13 +7002,13 @@
         <v>1218388</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="M12" s="7">
         <v>2828</v>
@@ -7041,13 +7017,13 @@
         <v>2395239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7038,13 @@
         <v>645213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>784</v>
@@ -7077,13 +7053,13 @@
         <v>725137</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>1359</v>
@@ -7092,13 +7068,13 @@
         <v>1370349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7089,13 @@
         <v>125467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -7128,13 +7104,13 @@
         <v>61627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>570</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>561</v>
       </c>
       <c r="M14" s="7">
         <v>146</v>
@@ -7143,13 +7119,13 @@
         <v>187095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7193,13 @@
         <v>8619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>576</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7235,10 +7211,10 @@
         <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7247,13 +7223,13 @@
         <v>14354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7244,13 @@
         <v>84710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -7283,13 +7259,13 @@
         <v>91425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>220</v>
@@ -7298,13 +7274,13 @@
         <v>176135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7295,13 @@
         <v>338860</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H18" s="7">
         <v>558</v>
@@ -7334,13 +7310,13 @@
         <v>396142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="M18" s="7">
         <v>913</v>
@@ -7349,13 +7325,13 @@
         <v>735002</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7346,13 @@
         <v>210338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
@@ -7385,13 +7361,13 @@
         <v>202838</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="M19" s="7">
         <v>477</v>
@@ -7400,13 +7376,13 @@
         <v>413176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7397,13 @@
         <v>30512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>606</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -7436,13 +7412,13 @@
         <v>17747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>569</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>599</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -7451,13 +7427,13 @@
         <v>48259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>15</v>
+        <v>601</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7501,13 @@
         <v>38975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>610</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>611</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -7540,13 +7516,13 @@
         <v>40880</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>603</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>604</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -7558,10 +7534,10 @@
         <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7552,13 @@
         <v>324114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -7591,13 +7567,13 @@
         <v>399778</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="M23" s="7">
         <v>955</v>
@@ -7606,13 +7582,13 @@
         <v>723891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7603,13 @@
         <v>1813423</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>623</v>
+        <v>39</v>
       </c>
       <c r="H24" s="7">
         <v>3100</v>
@@ -7642,13 +7618,13 @@
         <v>2093792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="M24" s="7">
         <v>4996</v>
@@ -7657,13 +7633,13 @@
         <v>3907215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7654,13 @@
         <v>1021202</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H25" s="7">
         <v>1430</v>
@@ -7693,13 +7669,13 @@
         <v>1166489</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M25" s="7">
         <v>2405</v>
@@ -7708,13 +7684,13 @@
         <v>2187691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7705,13 @@
         <v>177944</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>639</v>
+        <v>561</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="H26" s="7">
         <v>143</v>
@@ -7744,13 +7720,13 @@
         <v>97214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>641</v>
+        <v>339</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>532</v>
+        <v>634</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>642</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>258</v>
@@ -7759,13 +7735,13 @@
         <v>275158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,7 +7797,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA48A0D7-ACC6-48E6-AC03-42C986829C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D7421C-B14B-4E22-BCE1-82C2447A6E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{741AAFBE-37D7-48A5-B081-69EE9D25F52E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{02A77099-7E80-4013-8C9C-0B48D9CF62AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -86,19 +86,19 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -107,25 +107,25 @@
     <t>21,08%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>19,59%</t>
+    <t>19,76%</t>
   </si>
   <si>
     <t>23,03%</t>
@@ -137,28 +137,28 @@
     <t>50,98%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
   </si>
   <si>
     <t>56,08%</t>
   </si>
   <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
   </si>
   <si>
     <t>53,84%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -167,7 +167,7 @@
     <t>21,33%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>18,87%</t>
   </si>
   <si>
     <t>23,98%</t>
@@ -176,19 +176,19 @@
     <t>17,47%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -200,1759 +200,1759 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de huevos en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de huevos en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>Población según la frecuencia de consumo de huevos en 2023 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de huevos en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
     <t>1,05%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de huevos en 2016 (Tasa respuesta: 99,53%)</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de huevos en 2023 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>7,25%</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0976D9D8-BC35-4635-A238-753D0B5F5A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88ADA2D-9A42-4306-A262-B34A83CBB724}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2982,10 +2982,10 @@
         <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,10 +3003,10 @@
         <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -3015,13 +3015,13 @@
         <v>25021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3030,13 +3030,13 @@
         <v>60912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,7 +3092,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3104,7 +3104,7 @@
         <v>9050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>106</v>
@@ -3137,10 +3137,10 @@
         <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3155,13 @@
         <v>109318</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -3170,13 +3170,13 @@
         <v>69716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -3185,13 +3185,13 @@
         <v>179033</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3206,13 @@
         <v>321085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>286</v>
@@ -3221,13 +3221,13 @@
         <v>300513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>596</v>
@@ -3236,13 +3236,13 @@
         <v>621598</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3257,13 @@
         <v>103546</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -3272,13 +3272,13 @@
         <v>86421</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -3287,13 +3287,13 @@
         <v>189967</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,10 +3311,10 @@
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3323,13 +3323,13 @@
         <v>3030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3338,13 +3338,13 @@
         <v>11438</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3412,13 @@
         <v>77519</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -3430,10 +3430,10 @@
         <v>51</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>177</v>
@@ -3442,13 +3442,13 @@
         <v>181622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3463,13 @@
         <v>661943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>614</v>
@@ -3478,13 +3478,13 @@
         <v>619287</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>1272</v>
@@ -3493,13 +3493,13 @@
         <v>1281230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3514,13 @@
         <v>1793302</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>1967</v>
@@ -3529,13 +3529,13 @@
         <v>2008560</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>3737</v>
@@ -3544,13 +3544,13 @@
         <v>3801861</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3565,13 @@
         <v>663027</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>567</v>
@@ -3580,13 +3580,13 @@
         <v>594130</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>1199</v>
@@ -3595,13 +3595,13 @@
         <v>1257157</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3616,13 @@
         <v>76166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -3631,13 +3631,13 @@
         <v>47999</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -3646,13 +3646,13 @@
         <v>124166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3708,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7553E941-4246-40D8-83BA-15143F8DBB82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2892A1C-A01F-48A9-873E-0C23FC5CC921}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3744,7 +3744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3851,13 +3851,13 @@
         <v>37662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3866,13 +3866,13 @@
         <v>43842</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -3881,13 +3881,13 @@
         <v>81504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3902,13 @@
         <v>219618</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>292</v>
@@ -3917,13 +3917,13 @@
         <v>313856</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>498</v>
@@ -3932,13 +3932,13 @@
         <v>533474</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3953,13 @@
         <v>531290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>694</v>
@@ -3968,13 +3968,13 @@
         <v>738408</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>1188</v>
@@ -3983,13 +3983,13 @@
         <v>1269698</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4004,13 @@
         <v>159042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -4019,13 +4019,13 @@
         <v>222044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>350</v>
@@ -4034,13 +4034,13 @@
         <v>381086</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4055,13 @@
         <v>19868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4070,13 +4070,13 @@
         <v>13632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -4085,13 +4085,13 @@
         <v>33500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4159,13 @@
         <v>33813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4174,13 +4174,13 @@
         <v>27795</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4189,13 +4189,13 @@
         <v>61609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4210,13 @@
         <v>241130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -4225,13 +4225,13 @@
         <v>241838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>455</v>
@@ -4240,13 +4240,13 @@
         <v>482968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4261,13 @@
         <v>1135900</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>944</v>
@@ -4276,13 +4276,13 @@
         <v>1012449</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>2022</v>
@@ -4291,13 +4291,13 @@
         <v>2148349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4312,13 @@
         <v>507762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>402</v>
@@ -4327,13 +4327,13 @@
         <v>435456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -4342,13 +4342,13 @@
         <v>943217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4363,13 @@
         <v>42493</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -4378,13 +4378,13 @@
         <v>36369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -4396,10 +4396,10 @@
         <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,7 +4455,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4467,13 +4467,13 @@
         <v>8164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4482,13 +4482,13 @@
         <v>11928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4497,13 +4497,13 @@
         <v>20092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4518,13 @@
         <v>68884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -4533,13 +4533,13 @@
         <v>75019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -4548,13 +4548,13 @@
         <v>143902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4569,13 @@
         <v>276198</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>245</v>
@@ -4584,13 +4584,13 @@
         <v>272851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>498</v>
@@ -4599,13 +4599,13 @@
         <v>549049</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4620,13 @@
         <v>126980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -4635,13 +4635,13 @@
         <v>95836</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -4650,13 +4650,13 @@
         <v>222817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4671,13 @@
         <v>954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4686,13 +4686,13 @@
         <v>2997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4701,13 +4701,13 @@
         <v>3952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4775,13 @@
         <v>79640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -4790,13 +4790,13 @@
         <v>83565</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>149</v>
@@ -4805,13 +4805,13 @@
         <v>163205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4826,13 @@
         <v>529631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>585</v>
@@ -4841,13 +4841,13 @@
         <v>630713</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>1080</v>
@@ -4856,13 +4856,13 @@
         <v>1160344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4877,13 @@
         <v>1943389</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>1883</v>
@@ -4892,28 +4892,28 @@
         <v>2023708</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>3708</v>
       </c>
       <c r="N24" s="7">
-        <v>3967096</v>
+        <v>3967097</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4928,13 @@
         <v>793784</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>691</v>
@@ -4943,13 +4943,13 @@
         <v>753336</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>1430</v>
@@ -4958,13 +4958,13 @@
         <v>1547120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4979,13 @@
         <v>63316</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -4994,13 +4994,13 @@
         <v>52998</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -5009,13 +5009,13 @@
         <v>116314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,7 +5057,7 @@
         <v>6478</v>
       </c>
       <c r="N27" s="7">
-        <v>6954079</v>
+        <v>6954080</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24CBFC2-A35F-4708-9E4D-C437C8247C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBC530C-34A6-4F9E-A75F-71D4D2C7BEAF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5214,13 @@
         <v>28302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5229,13 +5229,13 @@
         <v>23659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -5244,13 +5244,13 @@
         <v>51962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5265,13 @@
         <v>83717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>130</v>
@@ -5280,13 +5280,13 @@
         <v>145527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -5295,13 +5295,13 @@
         <v>229244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5316,13 @@
         <v>406842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
@@ -5331,13 +5331,13 @@
         <v>558950</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="M6" s="7">
         <v>911</v>
@@ -5346,13 +5346,13 @@
         <v>965792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5367,13 @@
         <v>207275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>218</v>
@@ -5382,13 +5382,13 @@
         <v>239231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>422</v>
@@ -5397,13 +5397,13 @@
         <v>446506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5418,13 @@
         <v>25494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>372</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5433,13 +5433,13 @@
         <v>21740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -5448,13 +5448,13 @@
         <v>47233</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5522,13 @@
         <v>31215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>98</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>391</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -5537,13 +5537,13 @@
         <v>32708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -5552,10 +5552,10 @@
         <v>63923</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>108</v>
@@ -5573,13 +5573,13 @@
         <v>250731</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -5588,13 +5588,13 @@
         <v>281242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>500</v>
@@ -5603,13 +5603,13 @@
         <v>531973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5624,13 @@
         <v>1219014</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="H12" s="7">
         <v>1124</v>
@@ -5639,13 +5639,13 @@
         <v>1168771</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>2277</v>
@@ -5654,13 +5654,13 @@
         <v>2387785</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>276</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5675,13 @@
         <v>515409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="H13" s="7">
         <v>442</v>
@@ -5690,13 +5690,13 @@
         <v>461471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M13" s="7">
         <v>927</v>
@@ -5705,13 +5705,13 @@
         <v>976880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5726,13 @@
         <v>46261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -5741,13 +5741,13 @@
         <v>34413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5756,13 +5756,13 @@
         <v>80673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,7 +5804,7 @@
         <v>3840</v>
       </c>
       <c r="N15" s="7">
-        <v>4041235</v>
+        <v>4041234</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5830,13 +5830,13 @@
         <v>8982</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5845,13 +5845,13 @@
         <v>2755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5860,13 +5860,13 @@
         <v>11738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5881,13 @@
         <v>66296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5896,13 +5896,13 @@
         <v>82425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -5911,13 +5911,13 @@
         <v>148721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5932,13 @@
         <v>330453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="H18" s="7">
         <v>309</v>
@@ -5947,13 +5947,13 @@
         <v>323263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="M18" s="7">
         <v>614</v>
@@ -5962,13 +5962,13 @@
         <v>653716</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +5983,13 @@
         <v>132839</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -5998,13 +5998,13 @@
         <v>128231</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -6013,13 +6013,13 @@
         <v>261069</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>445</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,10 +6037,10 @@
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6049,13 +6049,13 @@
         <v>9329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -6064,13 +6064,13 @@
         <v>17645</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>464</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6138,13 @@
         <v>68499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -6153,13 +6153,13 @@
         <v>59123</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>468</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -6168,13 +6168,13 @@
         <v>127622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6189,13 @@
         <v>400744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="H23" s="7">
         <v>481</v>
@@ -6204,13 +6204,13 @@
         <v>509195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="M23" s="7">
         <v>856</v>
@@ -6219,13 +6219,13 @@
         <v>909938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6240,13 @@
         <v>1956310</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>465</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>1930</v>
@@ -6255,13 +6255,13 @@
         <v>2050983</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>3802</v>
@@ -6270,13 +6270,13 @@
         <v>4007293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6291,13 @@
         <v>855523</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="H25" s="7">
         <v>782</v>
@@ -6306,13 +6306,13 @@
         <v>828932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="M25" s="7">
         <v>1592</v>
@@ -6321,13 +6321,13 @@
         <v>1684455</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6342,13 @@
         <v>80070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>483</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6357,13 +6357,13 @@
         <v>65481</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -6375,10 +6375,10 @@
         <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>15</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6434,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B73E75B-03FC-4256-9AFF-4E4C8BEB0F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4032D3-95A9-430B-930F-CEF59B44B2A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6470,7 +6470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6577,13 +6577,13 @@
         <v>11193</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -6592,13 +6592,13 @@
         <v>8035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>489</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -6607,13 +6607,13 @@
         <v>19228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>491</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>493</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6628,13 @@
         <v>45113</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>151</v>
@@ -6643,13 +6643,13 @@
         <v>92301</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -6658,13 +6658,13 @@
         <v>137414</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6679,13 @@
         <v>297713</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>318</v>
+        <v>513</v>
       </c>
       <c r="H6" s="7">
         <v>858</v>
@@ -6694,13 +6694,13 @@
         <v>479262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="M6" s="7">
         <v>1255</v>
@@ -6709,13 +6709,13 @@
         <v>776974</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>508</v>
+        <v>367</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6730,13 @@
         <v>165651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>511</v>
+        <v>265</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="H7" s="7">
         <v>375</v>
@@ -6745,13 +6745,13 @@
         <v>238514</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="M7" s="7">
         <v>569</v>
@@ -6760,13 +6760,13 @@
         <v>404165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6781,13 @@
         <v>21964</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -6796,13 +6796,13 @@
         <v>17840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -6814,10 +6814,10 @@
         <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6885,13 @@
         <v>19163</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>534</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>527</v>
+        <v>392</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6900,13 +6900,13 @@
         <v>27110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -6915,13 +6915,13 @@
         <v>46273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>538</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6936,13 @@
         <v>194291</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -6951,13 +6951,13 @@
         <v>216051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>545</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -6966,13 +6966,13 @@
         <v>410342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6987,13 @@
         <v>1176852</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H12" s="7">
         <v>1684</v>
@@ -7002,13 +7002,13 @@
         <v>1218388</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="M12" s="7">
         <v>2828</v>
@@ -7017,13 +7017,13 @@
         <v>2395239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7038,13 @@
         <v>645213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>549</v>
+        <v>490</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="H13" s="7">
         <v>784</v>
@@ -7053,13 +7053,13 @@
         <v>725137</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="M13" s="7">
         <v>1359</v>
@@ -7068,13 +7068,13 @@
         <v>1370349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7089,13 @@
         <v>125467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>558</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -7104,13 +7104,13 @@
         <v>61627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>568</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>561</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>146</v>
@@ -7119,13 +7119,13 @@
         <v>187095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,7 +7181,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7193,13 +7193,13 @@
         <v>8619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>574</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7208,13 +7208,13 @@
         <v>5735</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7223,13 +7223,13 @@
         <v>14354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>567</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>569</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7244,13 @@
         <v>84710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -7259,13 +7259,13 @@
         <v>91425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="M17" s="7">
         <v>220</v>
@@ -7274,13 +7274,13 @@
         <v>176135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7295,13 @@
         <v>338860</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H18" s="7">
         <v>558</v>
@@ -7310,13 +7310,13 @@
         <v>396142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="M18" s="7">
         <v>913</v>
@@ -7325,13 +7325,13 @@
         <v>735002</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>586</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7346,13 @@
         <v>210338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
@@ -7361,13 +7361,13 @@
         <v>202838</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="M19" s="7">
         <v>477</v>
@@ -7376,13 +7376,13 @@
         <v>413176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,13 +7397,13 @@
         <v>30512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>596</v>
+        <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>601</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -7412,13 +7412,13 @@
         <v>17747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>598</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>569</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -7427,13 +7427,13 @@
         <v>48259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>601</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>602</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7501,13 @@
         <v>38975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>605</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>606</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -7516,13 +7516,13 @@
         <v>40880</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>603</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -7531,13 +7531,13 @@
         <v>79855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7552,13 @@
         <v>324114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -7567,13 +7567,13 @@
         <v>399778</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M23" s="7">
         <v>955</v>
@@ -7582,13 +7582,13 @@
         <v>723891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>614</v>
+        <v>546</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7603,13 @@
         <v>1813423</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>39</v>
+        <v>619</v>
       </c>
       <c r="H24" s="7">
         <v>3100</v>
@@ -7618,13 +7618,13 @@
         <v>2093792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>618</v>
+        <v>252</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M24" s="7">
         <v>4996</v>
@@ -7633,13 +7633,13 @@
         <v>3907215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7654,13 @@
         <v>1021202</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H25" s="7">
         <v>1430</v>
@@ -7669,13 +7669,13 @@
         <v>1166489</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M25" s="7">
         <v>2405</v>
@@ -7684,13 +7684,13 @@
         <v>2187691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7705,13 @@
         <v>177944</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>632</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H26" s="7">
         <v>143</v>
@@ -7720,13 +7720,13 @@
         <v>97214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>339</v>
+        <v>635</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>634</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>258</v>
@@ -7735,10 +7735,10 @@
         <v>275158</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>636</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>637</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D7421C-B14B-4E22-BCE1-82C2447A6E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3668D550-D702-4D48-A725-AC552F6B9458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{02A77099-7E80-4013-8C9C-0B48D9CF62AF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{90DD1DEA-BA34-45A1-AA00-29E114CADB72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="640">
   <si>
     <t>Población según la frecuencia de consumo de huevos en 2007 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -1538,421 +1538,427 @@
     <t>Población según la frecuencia de consumo de huevos en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
-    <t>3,73%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88ADA2D-9A42-4306-A262-B34A83CBB724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93226D02-B880-472F-9F4A-F4FF739B9FBA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3727,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2892A1C-A01F-48A9-873E-0C23FC5CC921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B9B065-9866-4C8A-9FDE-76D81CB54ABE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4545,7 +4551,7 @@
         <v>127</v>
       </c>
       <c r="N17" s="7">
-        <v>143902</v>
+        <v>143903</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>287</v>
@@ -4596,7 +4602,7 @@
         <v>498</v>
       </c>
       <c r="N18" s="7">
-        <v>549049</v>
+        <v>549050</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>296</v>
@@ -4749,7 +4755,7 @@
         <v>850</v>
       </c>
       <c r="N21" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5090,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBC530C-34A6-4F9E-A75F-71D4D2C7BEAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0930FFB1-1E32-429A-A389-B22B22A308A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5621,7 +5627,7 @@
         <v>1153</v>
       </c>
       <c r="D12" s="7">
-        <v>1219014</v>
+        <v>1219015</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>403</v>
@@ -5672,7 +5678,7 @@
         <v>485</v>
       </c>
       <c r="D13" s="7">
-        <v>515409</v>
+        <v>515410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>411</v>
@@ -5774,7 +5780,7 @@
         <v>1940</v>
       </c>
       <c r="D15" s="7">
-        <v>2062630</v>
+        <v>2062631</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5804,7 +5810,7 @@
         <v>3840</v>
       </c>
       <c r="N15" s="7">
-        <v>4041234</v>
+        <v>4041235</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -6453,7 +6459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4032D3-95A9-430B-930F-CEF59B44B2A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6D60A-8B9C-4CA0-ABB7-55F014DDFDAA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6574,10 +6580,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>11193</v>
+        <v>10481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>431</v>
@@ -6589,7 +6595,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>8035</v>
+        <v>7221</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>55</v>
@@ -6598,22 +6604,22 @@
         <v>500</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>19228</v>
+        <v>17702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,46 +6631,46 @@
         <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>45113</v>
+        <v>42947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H5" s="7">
         <v>151</v>
       </c>
       <c r="I5" s="7">
-        <v>92301</v>
+        <v>82402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
       </c>
       <c r="N5" s="7">
-        <v>137414</v>
+        <v>125349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,25 +6682,25 @@
         <v>397</v>
       </c>
       <c r="D6" s="7">
-        <v>297713</v>
+        <v>286873</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H6" s="7">
         <v>858</v>
       </c>
       <c r="I6" s="7">
-        <v>479262</v>
+        <v>439077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>514</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>515</v>
@@ -6706,16 +6712,16 @@
         <v>1255</v>
       </c>
       <c r="N6" s="7">
-        <v>776974</v>
+        <v>725949</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>517</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>367</v>
+        <v>518</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,46 +6733,46 @@
         <v>194</v>
       </c>
       <c r="D7" s="7">
-        <v>165651</v>
+        <v>154637</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>521</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H7" s="7">
         <v>375</v>
       </c>
       <c r="I7" s="7">
-        <v>238514</v>
+        <v>211165</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>522</v>
+        <v>381</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M7" s="7">
         <v>569</v>
       </c>
       <c r="N7" s="7">
-        <v>404165</v>
+        <v>365802</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,43 +6784,43 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>21964</v>
+        <v>20001</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>17840</v>
+        <v>15643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>469</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>530</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>531</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>39804</v>
+        <v>35644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>386</v>
+        <v>531</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>532</v>
@@ -6829,7 +6835,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6844,7 +6850,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6859,7 +6865,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6882,7 +6888,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>19163</v>
+        <v>18006</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>533</v>
@@ -6891,37 +6897,37 @@
         <v>534</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>27110</v>
+        <v>24921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>535</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>536</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>537</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
       </c>
       <c r="N10" s="7">
-        <v>46273</v>
+        <v>42928</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,46 +6939,46 @@
         <v>192</v>
       </c>
       <c r="D11" s="7">
-        <v>194291</v>
+        <v>186902</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
       </c>
       <c r="I11" s="7">
-        <v>216051</v>
+        <v>201012</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
       </c>
       <c r="N11" s="7">
-        <v>410342</v>
+        <v>387915</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,46 +6990,46 @@
         <v>1144</v>
       </c>
       <c r="D12" s="7">
-        <v>1176852</v>
+        <v>1159693</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H12" s="7">
         <v>1684</v>
       </c>
       <c r="I12" s="7">
-        <v>1218388</v>
+        <v>1204157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>552</v>
+        <v>37</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M12" s="7">
         <v>2828</v>
       </c>
       <c r="N12" s="7">
-        <v>2395239</v>
+        <v>2363851</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,46 +7041,46 @@
         <v>575</v>
       </c>
       <c r="D13" s="7">
-        <v>645213</v>
+        <v>611317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H13" s="7">
         <v>784</v>
       </c>
       <c r="I13" s="7">
-        <v>725137</v>
+        <v>752205</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M13" s="7">
         <v>1359</v>
       </c>
       <c r="N13" s="7">
-        <v>1370349</v>
+        <v>1363523</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,43 +7092,43 @@
         <v>64</v>
       </c>
       <c r="D14" s="7">
-        <v>125467</v>
+        <v>313403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>107</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
       </c>
       <c r="I14" s="7">
-        <v>61627</v>
+        <v>54410</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>146</v>
       </c>
       <c r="N14" s="7">
-        <v>187095</v>
+        <v>367813</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>571</v>
@@ -7137,7 +7143,7 @@
         <v>1991</v>
       </c>
       <c r="D15" s="7">
-        <v>2160986</v>
+        <v>2289322</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7152,7 +7158,7 @@
         <v>2919</v>
       </c>
       <c r="I15" s="7">
-        <v>2248313</v>
+        <v>2236706</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7167,7 +7173,7 @@
         <v>4910</v>
       </c>
       <c r="N15" s="7">
-        <v>4409298</v>
+        <v>4526029</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7190,46 +7196,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>8619</v>
+        <v>8076</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>572</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>573</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>574</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>5735</v>
+        <v>5382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>14354</v>
+        <v>13458</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,7 +7247,7 @@
         <v>85</v>
       </c>
       <c r="D17" s="7">
-        <v>84710</v>
+        <v>85282</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>576</v>
@@ -7250,13 +7256,13 @@
         <v>577</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
       </c>
       <c r="I17" s="7">
-        <v>91425</v>
+        <v>84429</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>578</v>
@@ -7271,7 +7277,7 @@
         <v>220</v>
       </c>
       <c r="N17" s="7">
-        <v>176135</v>
+        <v>169711</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>581</v>
@@ -7292,7 +7298,7 @@
         <v>355</v>
       </c>
       <c r="D18" s="7">
-        <v>338860</v>
+        <v>328594</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>584</v>
@@ -7307,7 +7313,7 @@
         <v>558</v>
       </c>
       <c r="I18" s="7">
-        <v>396142</v>
+        <v>369586</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>587</v>
@@ -7322,16 +7328,16 @@
         <v>913</v>
       </c>
       <c r="N18" s="7">
-        <v>735002</v>
+        <v>698180</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>590</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,46 +7349,46 @@
         <v>206</v>
       </c>
       <c r="D19" s="7">
-        <v>210338</v>
+        <v>196389</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
       </c>
       <c r="I19" s="7">
-        <v>202838</v>
+        <v>184810</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="M19" s="7">
         <v>477</v>
       </c>
       <c r="N19" s="7">
-        <v>413176</v>
+        <v>381198</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,46 +7400,46 @@
         <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>30512</v>
+        <v>28282</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>599</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>17747</v>
+        <v>16256</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
       </c>
       <c r="N20" s="7">
-        <v>48259</v>
+        <v>44538</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,7 +7451,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7460,7 +7466,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7475,7 +7481,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7498,46 +7504,46 @@
         <v>39</v>
       </c>
       <c r="D22" s="7">
-        <v>38975</v>
+        <v>36564</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="7">
+        <v>60</v>
+      </c>
+      <c r="I22" s="7">
+        <v>37524</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="7">
-        <v>60</v>
-      </c>
-      <c r="I22" s="7">
-        <v>40880</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
       </c>
       <c r="N22" s="7">
-        <v>79855</v>
+        <v>74088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>607</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>608</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,43 +7555,43 @@
         <v>338</v>
       </c>
       <c r="D23" s="7">
-        <v>324114</v>
+        <v>315131</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
       </c>
       <c r="I23" s="7">
-        <v>399778</v>
+        <v>367844</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="M23" s="7">
         <v>955</v>
       </c>
       <c r="N23" s="7">
-        <v>723891</v>
+        <v>682975</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>616</v>
@@ -7600,7 +7606,7 @@
         <v>1896</v>
       </c>
       <c r="D24" s="7">
-        <v>1813423</v>
+        <v>1775160</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>617</v>
@@ -7615,31 +7621,31 @@
         <v>3100</v>
       </c>
       <c r="I24" s="7">
-        <v>2093792</v>
+        <v>2012820</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>252</v>
+        <v>620</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>621</v>
+        <v>444</v>
       </c>
       <c r="M24" s="7">
         <v>4996</v>
       </c>
       <c r="N24" s="7">
-        <v>3907215</v>
+        <v>3787980</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,46 +7657,46 @@
         <v>975</v>
       </c>
       <c r="D25" s="7">
-        <v>1021202</v>
+        <v>962343</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H25" s="7">
         <v>1430</v>
       </c>
       <c r="I25" s="7">
-        <v>1166489</v>
+        <v>1148180</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M25" s="7">
         <v>2405</v>
       </c>
       <c r="N25" s="7">
-        <v>2187691</v>
+        <v>2110523</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,46 +7708,46 @@
         <v>115</v>
       </c>
       <c r="D26" s="7">
-        <v>177944</v>
+        <v>361686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>634</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H26" s="7">
         <v>143</v>
       </c>
       <c r="I26" s="7">
-        <v>97214</v>
+        <v>86309</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>635</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>469</v>
+        <v>637</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>70</v>
       </c>
       <c r="M26" s="7">
         <v>258</v>
       </c>
       <c r="N26" s="7">
-        <v>275158</v>
+        <v>447995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,7 +7759,7 @@
         <v>3363</v>
       </c>
       <c r="D27" s="7">
-        <v>3375658</v>
+        <v>3450884</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7768,7 +7774,7 @@
         <v>5350</v>
       </c>
       <c r="I27" s="7">
-        <v>3798152</v>
+        <v>3652677</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7783,7 +7789,7 @@
         <v>8713</v>
       </c>
       <c r="N27" s="7">
-        <v>7173810</v>
+        <v>7103561</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
